--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_6_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3225547.141488093</v>
+        <v>3225547.141488092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177298</v>
+        <v>3940022.790763222</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177298</v>
+        <v>3940022.790763222</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494347534.489019</v>
+        <v>56787597.0185868</v>
       </c>
     </row>
   </sheetData>
@@ -676,13 +676,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G2" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E5" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F5" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C8" t="n">
         <v>449.4745782429939</v>
@@ -1192,7 +1192,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1806,10 +1806,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O16" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2043,10 +2043,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>25.70923750768745</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C20" t="n">
         <v>449.4745782429939</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2277,16 +2277,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>133.3568653036801</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821978978</v>
+        <v>350.6276822437085</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151046196</v>
+        <v>408.1929150588091</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777493</v>
@@ -3049,10 +3049,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H32" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3225,10 +3225,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25.70923750768745</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E35" t="n">
         <v>404.3632896068686</v>
@@ -3340,7 +3340,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y35" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="36">
@@ -3462,10 +3462,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>25.70923750768745</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F38" t="n">
         <v>404.8896287080119</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3936,13 +3936,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O43" t="n">
-        <v>133.3568653036801</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D44" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E44" t="n">
         <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
         <v>397.8840054528454</v>
@@ -4170,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="O46" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4324,10 +4324,10 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4506,10 +4506,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6131206966358</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>426.6131206966358</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104934</v>
@@ -4558,10 +4558,10 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
         <v>492.3327682960356</v>
@@ -4588,10 +4588,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5048.61527574625</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P5" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4816,16 +4816,16 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.58008885974</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P8" t="n">
         <v>5864.602299897897</v>
@@ -4840,22 +4840,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4980,7 +4980,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
         <v>426.6131206966359</v>
@@ -5074,7 +5074,7 @@
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
         <v>6118.11576243671</v>
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5217,7 +5217,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
         <v>140.96</v>
@@ -5260,22 +5260,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
@@ -5299,7 +5299,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>4214.390158686993</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P14" t="n">
         <v>5864.602299897897</v>
@@ -5314,22 +5314,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5454,7 +5454,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N16" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O16" t="n">
         <v>140.96</v>
@@ -5512,7 +5512,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5691,7 +5691,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5761,25 +5761,25 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1936.671378010443</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>3373.59157327536</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
@@ -5925,13 +5925,13 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O22" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="P22" t="n">
         <v>140.96</v>
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -6010,7 +6010,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O23" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P23" t="n">
         <v>5864.602299897897</v>
@@ -6022,25 +6022,25 @@
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="24">
@@ -6247,7 +6247,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O26" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P26" t="n">
         <v>5864.602299897897</v>
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6572,7 +6572,7 @@
         <v>5925.70787425084</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306374176</v>
+        <v>5571.538498247094</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422430115</v>
@@ -6697,7 +6697,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
@@ -6873,7 +6873,7 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N34" t="n">
         <v>140.96</v>
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
         <v>1711.662994324041</v>
@@ -6988,7 +6988,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7110,7 +7110,7 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N37" t="n">
         <v>140.96</v>
@@ -7165,13 +7165,13 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7198,7 +7198,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897897</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236997</v>
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7584,10 +7584,10 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N43" t="n">
-        <v>275.6639043471516</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
         <v>140.96</v>
@@ -7636,10 +7636,10 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
         <v>894.2358041069906</v>
@@ -7669,7 +7669,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P44" t="n">
         <v>5864.602299897897</v>
@@ -7818,13 +7818,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M46" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N46" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
         <v>140.96</v>
@@ -8236,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q5" t="n">
-        <v>595.7709581728407</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>822.5705182964548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q8" t="n">
         <v>615.8520732695737</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P14" t="n">
-        <v>822.5705182964543</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>615.8520732695737</v>
@@ -9409,28 +9409,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>603.283928249446</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>70.05686619102073</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q23" t="n">
         <v>615.8520732695737</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q26" t="n">
         <v>615.8520732695737</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>822.5705182964543</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q44" t="n">
         <v>615.8520732695737</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>2.808139187274691</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O13" t="n">
-        <v>268.0582198167198</v>
+        <v>102.8454312732934</v>
       </c>
       <c r="P13" t="n">
         <v>368.8061924102448</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O16" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P16" t="n">
         <v>368.8061924102448</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P19" t="n">
         <v>368.8061924102448</v>
@@ -23974,7 +23974,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24165,16 +24165,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.66406242702104</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P22" t="n">
-        <v>368.8061924102448</v>
+        <v>343.0969549025573</v>
       </c>
       <c r="Q22" t="n">
         <v>505.228266425598</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995418916</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699954189444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24937,10 +24937,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25113,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>142.3116902230136</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25350,10 +25350,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>142.3116902230136</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25824,13 +25824,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O43" t="n">
-        <v>134.7013545130397</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P43" t="n">
         <v>368.8061924102448</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26058,16 +26058,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>2.808139187274691</v>
       </c>
       <c r="O46" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P46" t="n">
         <v>368.8061924102448</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15273.56714929389</v>
+        <v>1265610.825518069</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30280.7835895476</v>
+        <v>2493503.439842348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45288.0000298013</v>
+        <v>3721396.054166629</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62368.72817233024</v>
+        <v>4821237.927791082</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79449.45631485917</v>
+        <v>5921079.801415535</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96530.1844573881</v>
+        <v>7020921.67503998</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113610.912599917</v>
+        <v>8120763.548664423</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130691.6407424459</v>
+        <v>9220605.422288865</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147772.3688849749</v>
+        <v>10320447.29591331</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164853.0970275021</v>
+        <v>11420289.16953805</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181933.825170031</v>
+        <v>12520131.04316249</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>199014.5533125599</v>
+        <v>13619972.91678694</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216095.281455089</v>
+        <v>14719814.79041141</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233176.0095976182</v>
+        <v>15819656.66403587</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250256.7377401473</v>
+        <v>16919498.53766034</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577605</v>
       </c>
       <c r="C2" t="n">
         <v>976017.2062577604</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577604</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630245</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="H2" t="n">
         <v>874233.2841630249</v>
       </c>
       <c r="I2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="J2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="K2" t="n">
-        <v>874233.2841632586</v>
+        <v>874233.2841632587</v>
       </c>
       <c r="L2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="M2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="N2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.284163025</v>
       </c>
       <c r="O2" t="n">
-        <v>874233.2841630245</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630246</v>
       </c>
     </row>
     <row r="3">
@@ -26441,7 +26441,7 @@
         <v>38928.93672769591</v>
       </c>
       <c r="H4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="I4" t="n">
         <v>38928.93672769591</v>
@@ -26533,43 +26533,43 @@
         <v>689490.8793614134</v>
       </c>
       <c r="D6" t="n">
-        <v>689793.2400313468</v>
+        <v>689793.2400313464</v>
       </c>
       <c r="E6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353286</v>
       </c>
       <c r="F6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.947435329</v>
       </c>
       <c r="G6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="H6" t="n">
         <v>696324.947435329</v>
       </c>
       <c r="I6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="J6" t="n">
-        <v>76100.94743532897</v>
+        <v>76100.94743532885</v>
       </c>
       <c r="K6" t="n">
-        <v>696324.9474353956</v>
+        <v>696324.9474353958</v>
       </c>
       <c r="L6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="M6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="N6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353291</v>
       </c>
       <c r="O6" t="n">
-        <v>696324.9474353286</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="P6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353287</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,16 +27144,16 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>287.9921561219296</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>388.0294482079482</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27754,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28176,10 +28176,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
-        <v>31.19380758975518</v>
+        <v>19.22325579770342</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35080,13 +35080,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q5" t="n">
-        <v>1057.205816558923</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35308,7 +35308,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1749.431854979872</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,7 +35320,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q8" t="n">
         <v>1077.286931655656</v>
@@ -35472,10 +35472,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>31.19380758975518</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P14" t="n">
-        <v>1666.880950718084</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>1077.286931655656</v>
@@ -36253,28 +36253,28 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1350.398214681607</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>640.8074357593765</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36502,10 +36502,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q23" t="n">
         <v>1077.286931655656</v>
@@ -36739,10 +36739,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q26" t="n">
         <v>1077.286931655656</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1666.880950718084</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -38161,10 +38161,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q44" t="n">
         <v>1077.286931655656</v>
